--- a/StructureDefinition-profile-SearchParameter.xlsx
+++ b/StructureDefinition-profile-SearchParameter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="366">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.78774-06:00</t>
+    <t>2026-02-09T22:05:43.3185683-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,38 +425,141 @@
     <t>SearchParameter.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>SearchParameter.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SearchParameter.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `SearchParameter.versionAlgorithm[x]` is will have a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>SearchParameter.extension:title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.title|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SearchParameter.title from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the search parameter.</t>
+  </si>
+  <si>
+    <t>Element `SearchParameter.title` is will have a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+  </si>
+  <si>
+    <t>SearchParameter.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.copyright|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SearchParameter.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the search parameter and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the search parameter.</t>
+  </si>
+  <si>
+    <t>Element `SearchParameter.copyright` is will have a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+  </si>
+  <si>
+    <t>SearchParameter.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SearchParameter.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `SearchParameter.copyrightLabel` is will have a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+  </si>
+  <si>
+    <t>SearchParameter.extension:constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.constraint|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SearchParameter.constraint from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>FHIRPath expression that defines/sets a complex constraint for when this SearchParameter is applicable.</t>
+  </si>
+  <si>
+    <t>Element `SearchParameter.constraint` is will have a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+  </si>
+  <si>
+    <t>SearchParameter.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>SearchParameter.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -853,20 +956,13 @@
     <t>SearchParameter.xpathUsage.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>SearchParameter.xpathUsage.extension:processingMode</t>
+  </si>
+  <si>
+    <t>processingMode</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.processingMode|0.0.1-snapshot-3}
@@ -879,8 +975,7 @@
     <t>How the search parameter relates to the set of elements returned by evaluating the expression query.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `SearchParameter.processingMode` is mapped to FHIR R4 element `SearchParameter.xpathUsage`.</t>
   </si>
   <si>
     <t>SearchParameter.xpathUsage.value</t>
@@ -956,6 +1051,12 @@
   </si>
   <si>
     <t>SearchParameter.modifier.extension</t>
+  </si>
+  <si>
+    <t>SearchParameter.modifier.extension:modifier</t>
+  </si>
+  <si>
+    <t>modifier</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.modifier|0.0.1-snapshot-3}
@@ -965,6 +1066,9 @@
     <t>Cross-version extension for SearchParameter.modifier from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `SearchParameter.modifier` is mapped to FHIR R4 element `SearchParameter.modifier`.</t>
+  </si>
+  <si>
     <t>SearchParameter.modifier.value</t>
   </si>
   <si>
@@ -1003,6 +1107,9 @@
   </si>
   <si>
     <t>SearchParameter.component.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1350,7 +1457,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1359,9 +1466,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.86328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1369,7 +1476,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.75390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.3046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2352,7 +2459,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2371,17 +2478,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2418,16 +2523,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2448,7 +2551,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2465,43 +2568,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2549,7 +2652,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2558,7 +2661,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2567,7 +2670,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2581,18 +2684,20 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -2604,23 +2709,21 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2668,19 +2771,19 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2689,10 +2792,10 @@
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -2700,12 +2803,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2723,19 +2828,19 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2785,19 +2890,19 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -2806,10 +2911,10 @@
         <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -2820,15 +2925,17 @@
         <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>88</v>
@@ -2840,23 +2947,21 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
       </c>
@@ -2904,19 +3009,19 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -2939,9 +3044,11 @@
         <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3021,19 +3128,19 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3060,14 +3167,14 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3076,21 +3183,23 @@
         <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3114,55 +3223,55 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3170,10 +3279,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3181,7 +3290,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3196,19 +3305,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3257,10 +3366,10 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>88</v>
@@ -3278,10 +3387,10 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3289,14 +3398,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3315,16 +3424,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3374,7 +3483,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3395,10 +3504,10 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -3406,10 +3515,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3417,7 +3526,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3432,19 +3541,19 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3493,16 +3602,16 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>100</v>
@@ -3514,10 +3623,10 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3525,10 +3634,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3539,7 +3648,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3548,19 +3657,19 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3610,13 +3719,13 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
@@ -3631,7 +3740,7 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -3642,10 +3751,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3662,22 +3771,22 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3703,13 +3812,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3727,7 +3836,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>88</v>
@@ -3748,10 +3857,10 @@
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -3759,10 +3868,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3773,7 +3882,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3785,19 +3894,19 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3846,13 +3955,13 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -3867,10 +3976,10 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -3878,21 +3987,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3904,16 +4013,16 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3939,13 +4048,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -3963,13 +4072,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -3984,10 +4093,10 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -3995,10 +4104,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4018,21 +4127,23 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4080,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4101,21 +4212,21 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4123,10 +4234,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4138,16 +4249,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4197,13 +4308,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4218,7 +4329,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4229,10 +4340,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4243,7 +4354,7 @@
         <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4255,7 +4366,7 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>241</v>
@@ -4290,13 +4401,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4314,13 +4425,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4335,7 +4446,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4346,10 +4457,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4357,10 +4468,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4372,7 +4483,7 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>247</v>
@@ -4380,8 +4491,12 @@
       <c r="M26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4405,13 +4520,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4429,13 +4544,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4450,7 +4565,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4461,10 +4576,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4475,7 +4590,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4484,19 +4599,19 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4522,13 +4637,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4546,16 +4661,16 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>100</v>
@@ -4567,7 +4682,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4578,10 +4693,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4604,16 +4719,16 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4663,7 +4778,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4672,7 +4787,7 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>100</v>
@@ -4684,21 +4799,21 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4706,7 +4821,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -4718,18 +4833,20 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4754,13 +4871,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -4778,16 +4895,16 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>100</v>
@@ -4810,10 +4927,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4821,10 +4938,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4833,18 +4950,20 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4869,13 +4988,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -4893,19 +5012,19 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -4925,10 +5044,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4939,7 +5058,7 @@
         <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -4948,16 +5067,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4984,41 +5103,43 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -5038,10 +5159,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5064,15 +5185,17 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5121,19 +5244,19 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5153,10 +5276,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5179,15 +5302,17 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5236,7 +5361,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5245,10 +5370,10 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5268,10 +5393,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5282,7 +5407,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5297,10 +5422,10 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5327,13 +5452,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5351,16 +5476,16 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>100</v>
@@ -5383,10 +5508,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5409,13 +5534,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5466,7 +5591,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5478,7 +5603,7 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5498,10 +5623,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5512,7 +5637,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5524,13 +5649,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5569,31 +5694,29 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5613,12 +5736,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5627,7 +5752,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5639,16 +5764,16 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>108</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5674,13 +5799,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5698,7 +5823,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5707,10 +5832,10 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -5730,10 +5855,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5744,7 +5869,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5756,13 +5881,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5789,13 +5914,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -5813,19 +5938,19 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -5845,10 +5970,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5859,7 +5984,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -5871,13 +5996,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5904,13 +6029,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -5928,19 +6053,19 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -5960,10 +6085,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5971,10 +6096,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -5986,13 +6111,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6031,29 +6156,31 @@
         <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -6073,10 +6200,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6087,7 +6214,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6099,13 +6226,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6156,19 +6283,19 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6188,10 +6315,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6202,7 +6329,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6214,15 +6341,17 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6247,13 +6376,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6271,19 +6400,19 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -6303,10 +6432,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6329,17 +6458,15 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6364,13 +6491,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6388,7 +6515,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6420,10 +6547,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6434,7 +6561,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6446,13 +6573,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>312</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6503,19 +6630,19 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -6535,10 +6662,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6549,7 +6676,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6561,13 +6688,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>316</v>
+        <v>134</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6606,37 +6733,35 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6650,14 +6775,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D46" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6676,16 +6803,16 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>336</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>137</v>
+        <v>338</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6735,7 +6862,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6744,7 +6871,7 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>139</v>
@@ -6753,7 +6880,7 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -6767,46 +6894,42 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6854,25 +6977,25 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -6886,10 +7009,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6897,10 +7020,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -6912,15 +7035,17 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -6969,13 +7094,13 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7001,10 +7126,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7012,10 +7137,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7027,17 +7152,15 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>153</v>
+        <v>345</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7086,13 +7209,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7113,6 +7236,589 @@
         <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-SearchParameter.xlsx
+++ b/StructureDefinition-profile-SearchParameter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="369">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3185683-06:00</t>
+    <t>2026-02-17T14:42:26.8969658-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,7 +465,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `SearchParameter.versionAlgorithm[x]` is will have a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+    <t>Element `SearchParameter.versionAlgorithm[x]` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -488,7 +488,7 @@
     <t>A short, descriptive, user-friendly title for the search parameter.</t>
   </si>
   <si>
-    <t>Element `SearchParameter.title` is will have a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+    <t>Element `SearchParameter.title` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
   </si>
   <si>
     <t>SearchParameter.extension:copyright</t>
@@ -507,7 +507,7 @@
     <t>A copyright statement relating to the search parameter and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the search parameter.</t>
   </si>
   <si>
-    <t>Element `SearchParameter.copyright` is will have a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+    <t>Element `SearchParameter.copyright` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
   </si>
   <si>
     <t>SearchParameter.extension:copyrightLabel</t>
@@ -526,7 +526,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `SearchParameter.copyrightLabel` is will have a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+    <t>Element `SearchParameter.copyrightLabel` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
   </si>
   <si>
     <t>SearchParameter.extension:constraint</t>
@@ -542,7 +542,7 @@
     <t>FHIRPath expression that defines/sets a complex constraint for when this SearchParameter is applicable.</t>
   </si>
   <si>
-    <t>Element `SearchParameter.constraint` is will have a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+    <t>Element `SearchParameter.constraint` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
   </si>
   <si>
     <t>SearchParameter.modifierExtension</t>
@@ -975,7 +975,7 @@
     <t>How the search parameter relates to the set of elements returned by evaluating the expression query.</t>
   </si>
   <si>
-    <t>Element `SearchParameter.processingMode` is mapped to FHIR R4 element `SearchParameter.xpathUsage`.</t>
+    <t>Element `SearchParameter.processingMode` has is mapped to FHIR R4 element `SearchParameter.xpathUsage`, but has no comparisons.</t>
   </si>
   <si>
     <t>SearchParameter.xpathUsage.value</t>
@@ -1066,7 +1066,7 @@
     <t>Cross-version extension for SearchParameter.modifier from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `SearchParameter.modifier` is mapped to FHIR R4 element `SearchParameter.modifier`.</t>
+    <t>Element `SearchParameter.modifier` has is mapped to FHIR R4 element `SearchParameter.modifier`, but has no comparisons.</t>
   </si>
   <si>
     <t>SearchParameter.modifier.value</t>
@@ -1109,10 +1109,20 @@
     <t>SearchParameter.component.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>SearchParameter.component.extension:component</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.component|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SearchParameter.component from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `SearchParameter.component` has is mapped to FHIR R4 element `SearchParameter.component`, but has no comparisons.</t>
   </si>
   <si>
     <t>SearchParameter.component.modifierExtension</t>
@@ -1457,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7363,7 +7373,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7385,14 +7395,12 @@
         <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>134</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7429,16 +7437,14 @@
         <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>302</v>
@@ -7459,7 +7465,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7473,14 +7479,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="D52" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7493,26 +7501,24 @@
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7560,7 +7566,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7569,7 +7575,7 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>139</v>
@@ -7578,7 +7584,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7592,42 +7598,46 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7675,25 +7685,25 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7733,7 +7743,7 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>363</v>
@@ -7741,9 +7751,7 @@
       <c r="M54" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N54" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7819,6 +7827,123 @@
         <v>78</v>
       </c>
       <c r="AO54" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-SearchParameter.xlsx
+++ b/StructureDefinition-profile-SearchParameter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="375">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8969658-06:00</t>
+    <t>2026-02-20T11:59:20.9423407-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SearchParameter|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/SearchParameter</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,100 +449,124 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>SearchParameter.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.versionAlgorithm|0.0.1-snapshot-3}
+    <t>SearchParameter.extension:constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.constraint}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SearchParameter.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Element `SearchParameter.versionAlgorithm[x]` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+    <t>Cross-version extension for SearchParameter.constraint from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>FHIRPath expression that defines/sets a complex constraint for when this SearchParameter is applicable.</t>
+  </si>
+  <si>
+    <t>Element `SearchParameter.constraint` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>SearchParameter.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyright}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SearchParameter.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the artifact and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SearchParameter.copyright`: `http://hl7.org/fhir/StructureDefinition/artifact-copyright`.
+Element `SearchParameter.copyright` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+  </si>
+  <si>
+    <t>SearchParameter.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SearchParameter.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SearchParameter.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `SearchParameter.copyrightLabel` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+  </si>
+  <si>
+    <t>SearchParameter.extension:identifier</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-identifier}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SearchParameter.identifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this artifact when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SearchParameter.identifier`: `http://hl7.org/fhir/StructureDefinition/artifact-identifier`.
+Element `SearchParameter.identifier` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+  </si>
+  <si>
     <t>SearchParameter.extension:title</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.title|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-title}
 </t>
   </si>
   <si>
     <t>Cross-version extension for SearchParameter.title from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>A short, descriptive, user-friendly title for the search parameter.</t>
-  </si>
-  <si>
-    <t>Element `SearchParameter.title` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
-  </si>
-  <si>
-    <t>SearchParameter.extension:copyright</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.copyright|0.0.1-snapshot-3}
+    <t>A short, descriptive, user-friendly title for the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SearchParameter.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
+Element `SearchParameter.title` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+  </si>
+  <si>
+    <t>SearchParameter.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for SearchParameter.copyright from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the search parameter and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the search parameter.</t>
-  </si>
-  <si>
-    <t>Element `SearchParameter.copyright` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
-  </si>
-  <si>
-    <t>SearchParameter.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SearchParameter.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `SearchParameter.copyrightLabel` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
-  </si>
-  <si>
-    <t>SearchParameter.extension:constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.constraint|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SearchParameter.constraint from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>FHIRPath expression that defines/sets a complex constraint for when this SearchParameter is applicable.</t>
-  </si>
-  <si>
-    <t>Element `SearchParameter.constraint` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
+    <t>Cross-version extension for SearchParameter.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SearchParameter.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `SearchParameter.versionAlgorithm[x]` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
   </si>
   <si>
     <t>SearchParameter.modifierExtension</t>
@@ -965,7 +989,7 @@
     <t>processingMode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.processingMode|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.processingMode}
 </t>
   </si>
   <si>
@@ -1059,7 +1083,7 @@
     <t>modifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.modifier|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.modifier}
 </t>
   </si>
   <si>
@@ -1115,7 +1139,7 @@
     <t>component</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.component|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.component}
 </t>
   </si>
   <si>
@@ -1467,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO55"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1486,7 +1510,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.3046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.34375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2581,7 +2605,7 @@
         <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>78</v>
@@ -2603,16 +2627,16 @@
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2671,7 +2695,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2694,13 +2718,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
@@ -2722,16 +2746,16 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2790,7 +2814,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>139</v>
@@ -2813,13 +2837,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
@@ -2841,16 +2865,16 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2909,7 +2933,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>139</v>
@@ -2932,13 +2956,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
@@ -2948,7 +2972,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -2960,16 +2984,16 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3028,7 +3052,7 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>139</v>
@@ -3051,13 +3075,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>78</v>
@@ -3147,7 +3171,7 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>139</v>
@@ -3173,43 +3197,43 @@
         <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O15" t="s" s="2">
         <v>175</v>
       </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3257,7 +3281,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3275,7 +3299,7 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3289,33 +3313,33 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>178</v>
@@ -3376,31 +3400,31 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3408,10 +3432,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3419,7 +3443,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -3434,18 +3458,20 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3493,10 +3519,10 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>88</v>
@@ -3514,10 +3540,10 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -3525,10 +3551,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3536,7 +3562,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3551,7 +3577,7 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>192</v>
@@ -3562,9 +3588,7 @@
       <c r="N18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="O18" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3612,16 +3636,16 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>100</v>
@@ -3633,10 +3657,10 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3655,7 +3679,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -3667,21 +3691,23 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3732,13 +3758,13 @@
         <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>100</v>
@@ -3761,10 +3787,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3772,7 +3798,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -3781,22 +3807,22 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3822,13 +3848,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3846,10 +3872,10 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>88</v>
@@ -3867,10 +3893,10 @@
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -3878,10 +3904,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3889,7 +3915,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
@@ -3898,26 +3924,24 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -3941,13 +3965,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -3965,10 +3989,10 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>88</v>
@@ -3986,10 +4010,10 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -3997,14 +4021,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4023,18 +4047,20 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4082,7 +4108,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4103,10 +4129,10 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4114,14 +4140,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4140,7 +4166,7 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>227</v>
@@ -4151,9 +4177,7 @@
       <c r="N23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="O23" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4201,7 +4225,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4222,10 +4246,10 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4233,10 +4257,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4247,7 +4271,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4259,18 +4283,20 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4318,13 +4344,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4339,10 +4365,10 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4361,10 +4387,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4438,10 +4464,10 @@
         <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4478,10 +4504,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4504,9 +4530,7 @@
       <c r="N26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="O26" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4557,10 +4581,10 @@
         <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4575,7 +4599,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4586,10 +4610,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4612,18 +4636,20 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4647,13 +4673,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4671,7 +4697,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4692,7 +4718,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4703,10 +4729,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4717,7 +4743,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4726,19 +4752,19 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4764,13 +4790,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -4788,13 +4814,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -4809,21 +4835,21 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4831,7 +4857,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -4843,19 +4869,19 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4905,10 +4931,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>88</v>
@@ -4926,21 +4952,21 @@
         <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4951,7 +4977,7 @@
         <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4966,13 +4992,13 @@
         <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4998,13 +5024,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5022,13 +5048,13 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -5068,7 +5094,7 @@
         <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5088,7 +5114,9 @@
       <c r="M31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5113,13 +5141,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5143,7 +5171,7 @@
         <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
@@ -5169,10 +5197,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5180,7 +5208,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -5192,20 +5220,18 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N32" t="s" s="2">
         <v>286</v>
       </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5230,13 +5256,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5254,16 +5280,16 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
@@ -5286,10 +5312,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5312,16 +5338,16 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5371,7 +5397,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5380,7 +5406,7 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>100</v>
@@ -5403,10 +5429,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5429,15 +5455,17 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5462,13 +5490,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5486,7 +5514,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5495,7 +5523,7 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>100</v>
@@ -5518,10 +5546,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5544,13 +5572,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5577,13 +5605,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5601,7 +5629,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5610,10 +5638,10 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5633,10 +5661,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5647,7 +5675,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5659,13 +5687,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5704,29 +5732,31 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5746,14 +5776,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5762,7 +5790,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5774,17 +5802,15 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>305</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5821,19 +5847,17 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5842,7 +5866,7 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>139</v>
@@ -5868,9 +5892,11 @@
         <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>78</v>
       </c>
@@ -5891,15 +5917,17 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>185</v>
+        <v>311</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5948,19 +5976,19 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -5980,10 +6008,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5994,7 +6022,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6006,13 +6034,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6039,13 +6067,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6063,19 +6091,19 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -6095,10 +6123,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6109,7 +6137,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6121,13 +6149,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6154,13 +6182,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6178,13 +6206,13 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
@@ -6210,10 +6238,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6236,13 +6264,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6293,7 +6321,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6325,10 +6353,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6339,7 +6367,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6351,17 +6379,15 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6386,13 +6412,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6410,13 +6436,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6476,7 +6502,9 @@
       <c r="M43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6501,13 +6529,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6557,10 +6585,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6571,7 +6599,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6583,13 +6611,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6616,13 +6644,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6640,19 +6668,19 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -6672,10 +6700,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6686,7 +6714,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6698,13 +6726,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6743,29 +6771,31 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -6785,14 +6815,12 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>78</v>
       </c>
@@ -6813,17 +6841,15 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>336</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>337</v>
+        <v>134</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6860,19 +6886,17 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6881,7 +6905,7 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>139</v>
@@ -6904,12 +6928,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6918,7 +6944,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -6930,15 +6956,17 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -6987,19 +7015,19 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7019,10 +7047,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7033,7 +7061,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7045,17 +7073,15 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7104,19 +7130,19 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7136,10 +7162,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7162,15 +7188,17 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>345</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7219,7 +7247,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7251,10 +7279,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7265,7 +7293,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7277,13 +7305,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>185</v>
+        <v>351</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7334,25 +7362,25 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7366,10 +7394,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7380,7 +7408,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7392,13 +7420,13 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>134</v>
+        <v>355</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>135</v>
+        <v>356</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7437,35 +7465,37 @@
         <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7479,14 +7509,12 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7507,17 +7535,15 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>355</v>
+        <v>134</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7554,19 +7580,17 @@
         <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7575,7 +7599,7 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>139</v>
@@ -7598,14 +7622,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="D53" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7618,26 +7644,24 @@
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>133</v>
+        <v>360</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7685,7 +7709,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7694,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>139</v>
@@ -7703,7 +7727,7 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7717,42 +7741,46 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -7800,25 +7828,25 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7832,10 +7860,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7858,17 +7886,15 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -7917,7 +7943,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>88</v>
@@ -7944,6 +7970,123 @@
         <v>78</v>
       </c>
       <c r="AO55" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-SearchParameter.xlsx
+++ b/StructureDefinition-profile-SearchParameter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="342">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9423407-06:00</t>
+    <t>2026-02-21T13:36:54.3471939-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SearchParameter</t>
+    <t>http://hl7.org/fhir/StructureDefinition/SearchParameter|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>SearchParameter.extension:constraint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.constraint}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.constraint|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -467,106 +467,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>SearchParameter.extension:copyright</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyright}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SearchParameter.copyright from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the artifact and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SearchParameter.copyright`: `http://hl7.org/fhir/StructureDefinition/artifact-copyright`.
-Element `SearchParameter.copyright` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
-  </si>
-  <si>
-    <t>SearchParameter.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SearchParameter.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SearchParameter.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `SearchParameter.copyrightLabel` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
-  </si>
-  <si>
-    <t>SearchParameter.extension:identifier</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-identifier}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SearchParameter.identifier from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this artifact when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SearchParameter.identifier`: `http://hl7.org/fhir/StructureDefinition/artifact-identifier`.
-Element `SearchParameter.identifier` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
-  </si>
-  <si>
-    <t>SearchParameter.extension:title</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-title}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SearchParameter.title from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SearchParameter.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
-Element `SearchParameter.title` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
-  </si>
-  <si>
-    <t>SearchParameter.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SearchParameter.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SearchParameter.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `SearchParameter.versionAlgorithm[x]` has a context of SearchParameter based on following the parent source element upwards and mapping to `SearchParameter`.</t>
   </si>
   <si>
     <t>SearchParameter.modifierExtension</t>
@@ -989,7 +889,7 @@
     <t>processingMode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.processingMode}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.processingMode|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -999,7 +899,7 @@
     <t>How the search parameter relates to the set of elements returned by evaluating the expression query.</t>
   </si>
   <si>
-    <t>Element `SearchParameter.processingMode` has is mapped to FHIR R4 element `SearchParameter.xpathUsage`, but has no comparisons.</t>
+    <t>Element `SearchParameter.processingMode` is mapped to FHIR R4 element `SearchParameter.xpathUsage` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>SearchParameter.xpathUsage.value</t>
@@ -1083,14 +983,14 @@
     <t>modifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.modifier}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.modifier|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for SearchParameter.modifier from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `SearchParameter.modifier` has is mapped to FHIR R4 element `SearchParameter.modifier`, but has no comparisons.</t>
+    <t>Element `SearchParameter.modifier` is mapped to FHIR R4 element `SearchParameter.modifier` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>SearchParameter.modifier.value</t>
@@ -1133,20 +1033,10 @@
     <t>SearchParameter.component.extension</t>
   </si>
   <si>
-    <t>SearchParameter.component.extension:component</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SearchParameter.component}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SearchParameter.component from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `SearchParameter.component` has is mapped to FHIR R4 element `SearchParameter.component`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>SearchParameter.component.modifierExtension</t>
@@ -1491,7 +1381,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1502,7 +1392,7 @@
   <cols>
     <col min="1" max="1" width="46.86328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1510,7 +1400,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.34375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.75390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2721,43 +2611,43 @@
         <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2805,7 +2695,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2823,7 +2713,7 @@
         <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>78</v>
@@ -2837,20 +2727,18 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s" s="2">
         <v>153</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>88</v>
@@ -2862,21 +2750,23 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2924,19 +2814,19 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -2945,10 +2835,10 @@
         <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -2956,14 +2846,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -2972,7 +2860,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -2981,19 +2869,19 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3043,19 +2931,19 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3064,10 +2952,10 @@
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>78</v>
@@ -3075,20 +2963,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>88</v>
@@ -3100,21 +2986,23 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3162,19 +3050,19 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3194,14 +3082,12 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3222,16 +3108,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3281,19 +3167,19 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -3313,21 +3199,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3336,23 +3222,21 @@
         <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O16" t="s" s="2">
         <v>181</v>
       </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3376,13 +3260,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3400,31 +3284,31 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3432,10 +3316,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3443,7 +3327,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -3458,19 +3342,19 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3519,10 +3403,10 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>88</v>
@@ -3540,10 +3424,10 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -3551,14 +3435,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3577,16 +3461,16 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3636,7 +3520,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3657,10 +3541,10 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3668,10 +3552,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3679,7 +3563,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -3694,19 +3578,19 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3755,16 +3639,16 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>100</v>
@@ -3776,10 +3660,10 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3787,10 +3671,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3801,7 +3685,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3810,19 +3694,19 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3872,13 +3756,13 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
@@ -3893,7 +3777,7 @@
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3904,10 +3788,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3924,22 +3808,22 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3965,13 +3849,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -3989,7 +3873,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -4010,10 +3894,10 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4021,10 +3905,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4035,7 +3919,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4047,19 +3931,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4108,13 +3992,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -4129,10 +4013,10 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4140,21 +4024,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4166,16 +4050,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4201,13 +4085,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4225,13 +4109,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4246,10 +4130,10 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4257,10 +4141,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4280,23 +4164,21 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4344,7 +4226,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4365,21 +4247,21 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4387,10 +4269,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4402,16 +4284,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4461,13 +4343,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4482,7 +4364,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4493,10 +4375,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4507,7 +4389,7 @@
         <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4519,16 +4401,16 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4554,13 +4436,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4578,13 +4460,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4599,7 +4481,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4610,10 +4492,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4621,10 +4503,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4636,20 +4518,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O27" t="s" s="2">
         <v>256</v>
       </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4673,13 +4551,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4697,13 +4575,13 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
@@ -4718,7 +4596,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4729,10 +4607,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4743,7 +4621,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4752,10 +4630,10 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>260</v>
@@ -4790,40 +4668,40 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>100</v>
@@ -4835,7 +4713,7 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -4846,10 +4724,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4872,16 +4750,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4931,7 +4809,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4940,7 +4818,7 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>100</v>
@@ -4952,21 +4830,21 @@
         <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4974,7 +4852,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -4986,20 +4864,18 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5024,13 +4900,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5048,16 +4924,16 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>100</v>
@@ -5080,10 +4956,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5091,10 +4967,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5103,20 +4979,18 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5141,13 +5015,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5165,19 +5039,19 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -5197,10 +5071,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5208,10 +5082,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5220,16 +5094,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5256,43 +5130,41 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5312,12 +5184,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5338,16 +5212,16 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5397,19 +5271,19 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>293</v>
+        <v>145</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5429,10 +5303,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5455,17 +5329,15 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5514,7 +5386,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5523,10 +5395,10 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -5546,10 +5418,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5560,7 +5432,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5575,10 +5447,10 @@
         <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5605,13 +5477,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5629,16 +5501,16 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>100</v>
@@ -5661,10 +5533,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5687,13 +5559,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5744,7 +5616,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5756,7 +5628,7 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5776,10 +5648,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5790,7 +5662,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5802,13 +5674,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5847,29 +5719,31 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -5889,14 +5763,12 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>78</v>
       </c>
@@ -5905,7 +5777,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5917,16 +5789,16 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>311</v>
+        <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5952,13 +5824,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -5976,7 +5848,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5985,10 +5857,10 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -6008,10 +5880,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6022,7 +5894,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6034,13 +5906,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6067,13 +5939,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6091,19 +5963,19 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -6123,10 +5995,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6137,7 +6009,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6149,13 +6021,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6182,13 +6054,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6206,19 +6078,19 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -6238,10 +6110,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6252,7 +6124,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6264,13 +6136,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>134</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
+        <v>135</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6309,31 +6181,29 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6353,12 +6223,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6367,7 +6239,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6379,15 +6251,17 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6436,19 +6310,19 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -6468,10 +6342,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6482,7 +6356,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6494,17 +6368,15 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6529,13 +6401,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6553,19 +6425,19 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -6585,10 +6457,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6611,15 +6483,17 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6644,13 +6518,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6668,7 +6542,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6700,10 +6574,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6714,7 +6588,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6726,13 +6600,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6783,19 +6657,19 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -6815,10 +6689,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6829,7 +6703,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6841,13 +6715,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6886,35 +6760,37 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -6928,16 +6804,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6956,16 +6830,16 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>344</v>
+        <v>150</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7015,7 +6889,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7024,7 +6898,7 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>139</v>
@@ -7033,7 +6907,7 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7047,42 +6921,46 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7130,25 +7008,25 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7162,10 +7040,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7173,10 +7051,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7188,17 +7066,15 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7247,13 +7123,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7279,10 +7155,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7290,10 +7166,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7305,15 +7181,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>351</v>
+        <v>161</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7362,13 +7240,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7389,704 +7267,6 @@
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO56" t="s" s="2">
         <v>78</v>
       </c>
     </row>
